--- a/hiqu/Performance Evaluation/September 2024/Dev/Asad Mahmood.xlsx
+++ b/hiqu/Performance Evaluation/September 2024/Dev/Asad Mahmood.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\ScoreCard.Arshad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\September 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37927C2A-F5EF-449B-BB47-FA298CA6E4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9F8C8C-F3D0-4719-8F64-8A1B9B64D724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="93">
   <si>
     <t>Employee Name</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Smoke</t>
   </si>
   <si>
-    <t>Passed</t>
-  </si>
-  <si>
     <t>QA</t>
   </si>
   <si>
@@ -282,9 +279,6 @@
     <t>Period: September 2024</t>
   </si>
   <si>
-    <t>Bug Fixing</t>
-  </si>
-  <si>
     <t>021</t>
   </si>
   <si>
@@ -310,6 +304,18 @@
   </si>
   <si>
     <t>Client Items</t>
+  </si>
+  <si>
+    <t>APWORKS 2024.2 - PHASE 3</t>
+  </si>
+  <si>
+    <t>Google Drive integration. (Setup and Integration development)</t>
+  </si>
+  <si>
+    <t>Dev Support</t>
+  </si>
+  <si>
+    <t>Regular bug fixing activity</t>
   </si>
 </sst>
 </file>
@@ -320,7 +326,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +405,12 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="ARIAL"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -529,19 +541,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -552,6 +551,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -574,21 +584,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -612,7 +612,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -623,6 +623,22 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -630,7 +646,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -645,43 +661,37 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1030,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
   <dimension ref="B2:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,30 +1052,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="30"/>
+      <c r="B2" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="32"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
+      <c r="C5" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -1073,11 +1083,11 @@
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
@@ -1085,11 +1095,11 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -1097,11 +1107,11 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -1109,316 +1119,320 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+      <c r="C9" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="36">
+        <v>65</v>
+      </c>
+      <c r="C10" s="38">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>0.96438356164383565</v>
-      </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+        <v>1.0164383561643835</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
-        <v>40</v>
       </c>
       <c r="C16" s="1">
         <v>8</v>
       </c>
-      <c r="E16" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
+      <c r="E16" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="1">
         <v>5</v>
       </c>
-      <c r="J16" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="39"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="28"/>
+      <c r="J16" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="41"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="24"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
-        <v>41</v>
+      <c r="B17" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="C17" s="1">
         <v>7</v>
       </c>
-      <c r="E17" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
+      <c r="E17" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
       <c r="H17" s="1">
         <v>7</v>
       </c>
-      <c r="J17" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" s="39"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="28"/>
+      <c r="J17" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="41"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="24"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
-        <v>42</v>
+      <c r="B18" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="C18" s="1">
         <v>8</v>
       </c>
-      <c r="E18" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
+      <c r="E18" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
       <c r="H18" s="1">
         <v>9</v>
       </c>
-      <c r="J18" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="39"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="28"/>
+      <c r="J18" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="41"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="24"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
-        <v>43</v>
+      <c r="B19" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="C19" s="1">
         <v>8</v>
       </c>
-      <c r="E19" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="E19" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="1">
         <v>8</v>
       </c>
-      <c r="J19" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="K19" s="39"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="28"/>
+      <c r="J19" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" s="41"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="24"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
-        <v>44</v>
+      <c r="B20" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="C20" s="1">
         <v>8</v>
       </c>
-      <c r="E20" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
+      <c r="E20" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="1">
         <v>8</v>
       </c>
-      <c r="J20" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="K20" s="39"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="28"/>
+      <c r="J20" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" s="41"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="24"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
-        <v>45</v>
+      <c r="B21" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="C21" s="1">
         <v>8</v>
       </c>
-      <c r="E21" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
+      <c r="E21" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
       <c r="H21" s="1">
         <v>8</v>
       </c>
-      <c r="J21" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="K21" s="39"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="28"/>
+      <c r="J21" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="41"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="24"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="s">
-        <v>59</v>
+      <c r="B22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="C22" s="1">
         <v>7</v>
       </c>
-      <c r="E22" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="27"/>
-      <c r="J22" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" s="39"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="28"/>
+      <c r="E22" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="23"/>
+      <c r="J22" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" s="41"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="24"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
-        <v>60</v>
+      <c r="B23" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="C23" s="1">
         <v>7</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
       <c r="H23" s="1"/>
-      <c r="J23" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="K23" s="39"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="28"/>
+      <c r="J23" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" s="41"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="24"/>
     </row>
     <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="E27" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="F27" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="G27" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="H27" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="I27" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="20" t="s">
+      <c r="J27" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="25" t="s">
+      <c r="K27" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="K27" s="20" t="s">
+      <c r="L27" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="L27" s="25" t="s">
+      <c r="M27" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="M27" s="20" t="s">
+      <c r="N27" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="N27" s="25" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2">
+        <v>21</v>
+      </c>
       <c r="D28" s="1">
         <v>22</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="2">
+        <v>19</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1430,14 +1444,18 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="2"/>
+      <c r="B29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="2">
+        <v>21</v>
+      </c>
       <c r="D29" s="1">
         <v>22</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="2">
+        <v>19</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1449,14 +1467,18 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1468,14 +1490,18 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2">
+        <v>21</v>
+      </c>
       <c r="D31" s="1">
         <v>21</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="2">
+        <v>19</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1487,14 +1513,18 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1506,14 +1536,18 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
       <c r="D33" s="1">
         <v>1</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1525,14 +1559,18 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1544,14 +1582,18 @@
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="2"/>
+      <c r="B35" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
       <c r="D35" s="1">
         <v>1</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1601,14 +1643,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
   <dimension ref="B2:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="5" customWidth="1"/>
@@ -1631,187 +1673,187 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
     </row>
     <row r="3" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="str">
+      <c r="B3" s="43" t="str">
         <f>Employee!C6</f>
         <v>Asad Mahmood</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
+      <c r="B4" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41" t="s">
+      <c r="K6" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49"/>
+      <c r="O6" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="S6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" s="8"/>
+      <c r="V6" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="49"/>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="28"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="E7" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="K6" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
-      <c r="O6" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="S6" s="11" t="s">
+      <c r="F7" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="K7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="U6" s="11"/>
-      <c r="V6" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="48"/>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="9" t="s">
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
         <v>89</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="K7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="U7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="V7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="W7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="X7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y7" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="50" t="s">
-        <v>79</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
@@ -1820,237 +1862,288 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="U8" s="7"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="6"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="7"/>
+      <c r="Y8" s="6"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
+      <c r="C9" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25">
+        <v>5</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="13">
+      <c r="L9" s="2">
+        <v>56</v>
+      </c>
+      <c r="M9" s="9">
         <f t="shared" ref="M9:M14" si="0">IF(K9=0,0,(L9-K9)/K9)</f>
         <v>0</v>
       </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2">
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>39</v>
-      </c>
-      <c r="Q9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
         <f>IF(O9=0,0,(P9-O9)/O9)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="6"/>
-      <c r="S9" s="51">
+      <c r="R9" s="30"/>
+      <c r="S9" s="26">
         <f>(K9+O9)-(L9+P9)</f>
-        <v>-39</v>
-      </c>
-      <c r="U9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="V9" s="2">
-        <v>6</v>
-      </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="7">
-        <f>SUM(V9:X9)</f>
-        <v>6</v>
-      </c>
+        <v>-56</v>
+      </c>
+      <c r="T9" s="2"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="6"/>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="27"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="13">
+      <c r="M10" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="13">
+      <c r="Q10" s="9">
         <f>IF(O10=0,0,(P10-O10)/O10)</f>
         <v>0</v>
       </c>
-      <c r="R10" s="6"/>
-      <c r="S10" s="51">
+      <c r="R10" s="30"/>
+      <c r="S10" s="26">
         <f>(K10+O10)-(L10+P10)</f>
         <v>0</v>
       </c>
-      <c r="U10" s="13"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="9"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="7"/>
+      <c r="Y10" s="6"/>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <v>4</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="13">
+      <c r="M11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="13">
+      <c r="Q11" s="9">
         <f>IF(O11=0,0,(P11-O11)/O11)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="6"/>
-      <c r="S11" s="51">
+      <c r="R11" s="30"/>
+      <c r="S11" s="26">
         <f>(K11+O11)-(L11+P11)</f>
         <v>0</v>
       </c>
-      <c r="U11" s="13"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="9"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="7"/>
+      <c r="Y11" s="6"/>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="27" t="s">
+        <v>92</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="13">
+      <c r="M12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="7"/>
-      <c r="S12" s="51">
+      <c r="N12" s="2"/>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="9">
+        <f>IF(O12=0,0,(P12-O12)/O12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="26">
         <f>(K12+O12)-(L12+P12)</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="7"/>
+        <v>-83</v>
+      </c>
+      <c r="T12" s="2"/>
+      <c r="U12" s="6"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="7"/>
+      <c r="Y12" s="6"/>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
     </row>
     <row r="14" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15">
+      <c r="C14" s="10"/>
+      <c r="D14" s="11">
         <f>SUM(D8:D13)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="11">
         <f t="shared" ref="E14:I14" si="1">SUM(E8:E13)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="15">
+        <v>5</v>
+      </c>
+      <c r="F14" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="15">
+        <v>4</v>
+      </c>
+      <c r="H14" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15">
+      <c r="J14" s="11"/>
+      <c r="K14" s="11">
         <f t="shared" ref="K14:L14" si="2">SUM(K8:K13)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="16">
+        <v>56</v>
+      </c>
+      <c r="M14" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15">
+      <c r="N14" s="11"/>
+      <c r="O14" s="11">
         <f t="shared" ref="O14" si="3">SUM(O8:O13)</f>
         <v>0</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="11">
         <f t="shared" ref="P14" si="4">SUM(P8:P13)</f>
-        <v>39</v>
-      </c>
-      <c r="Q14" s="16">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="12">
         <f>IF(O14=0,0,(P14-O14)/O14)</f>
         <v>0</v>
       </c>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15">
+      <c r="R14" s="11"/>
+      <c r="S14" s="11">
         <f>SUM(S8:S12)</f>
-        <v>-39</v>
-      </c>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15">
+        <v>-139</v>
+      </c>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11">
         <f t="shared" ref="V14" si="5">SUM(V8:V13)</f>
-        <v>6</v>
-      </c>
-      <c r="W14" s="15">
+        <v>0</v>
+      </c>
+      <c r="W14" s="11">
         <f t="shared" ref="W14" si="6">SUM(W8:W13)</f>
         <v>0</v>
       </c>
-      <c r="X14" s="15">
+      <c r="X14" s="11">
         <f t="shared" ref="X14:Y14" si="7">SUM(X8:X13)</f>
         <v>0</v>
       </c>
-      <c r="Y14" s="15">
+      <c r="Y14" s="11">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/hiqu/Performance Evaluation/September 2024/Dev/Asad Mahmood.xlsx
+++ b/hiqu/Performance Evaluation/September 2024/Dev/Asad Mahmood.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\September 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9F8C8C-F3D0-4719-8F64-8A1B9B64D724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEA363E-7353-4247-82FA-BF5197DBED71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
-    <sheet name="Project Portfolio" sheetId="1" r:id="rId2"/>
+    <sheet name="Quarterly Evaluation" sheetId="3" r:id="rId2"/>
+    <sheet name="September 2024" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
   <si>
     <t>Employee Name</t>
   </si>
@@ -316,6 +317,18 @@
   </si>
   <si>
     <t>Regular bug fixing activity</t>
+  </si>
+  <si>
+    <t>Quarterly Evaluation (%)</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
   </si>
 </sst>
 </file>
@@ -409,11 +422,11 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="ARIAL"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,12 +466,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,7 +580,7 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -612,17 +619,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -639,34 +641,23 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -692,6 +683,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1038,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
-  <dimension ref="B2:N35"/>
+  <dimension ref="B2:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,581 +1046,353 @@
     <col min="4" max="14" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="32" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="32"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="34">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>1.0164383561643835</v>
-      </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
+        <v>1.0246575342465754</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="1">
-        <v>8</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="1">
-        <v>5</v>
-      </c>
-      <c r="J16" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16" s="41"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="24"/>
+    <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N16" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="1">
-        <v>7</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="1">
-        <v>7</v>
-      </c>
-      <c r="J17" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="K17" s="41"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="24"/>
+      <c r="B17" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1">
+        <v>22</v>
+      </c>
+      <c r="E17" s="2">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="1">
-        <v>8</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="1">
-        <v>9</v>
-      </c>
-      <c r="J18" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="K18" s="41"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="24"/>
+      <c r="B18" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="1">
-        <v>8</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="1">
-        <v>8</v>
-      </c>
-      <c r="J19" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="K19" s="41"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="24"/>
+      <c r="B19" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="1">
-        <v>8</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="1">
-        <v>8</v>
-      </c>
-      <c r="J20" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="K20" s="41"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="24"/>
+      <c r="B20" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="2">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1">
+        <v>21</v>
+      </c>
+      <c r="E20" s="2">
+        <v>19</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="1">
-        <v>8</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="1">
-        <v>8</v>
-      </c>
-      <c r="J21" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="K21" s="41"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="24"/>
+      <c r="B21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="1">
-        <v>7</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="23"/>
-      <c r="J22" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="K22" s="41"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="24"/>
+      <c r="B22" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="1">
-        <v>7</v>
-      </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
+      <c r="B23" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="J23" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="K23" s="41"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="24"/>
-    </row>
-    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="K27" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="L27" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="M27" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="N27" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="2">
-        <v>21</v>
-      </c>
-      <c r="D28" s="1">
-        <v>22</v>
-      </c>
-      <c r="E28" s="2">
-        <v>19</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="2">
-        <v>21</v>
-      </c>
-      <c r="D29" s="1">
-        <v>22</v>
-      </c>
-      <c r="E29" s="2">
-        <v>19</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="2">
-        <v>21</v>
-      </c>
-      <c r="D31" s="1">
-        <v>21</v>
-      </c>
-      <c r="E31" s="2">
-        <v>19</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B25:N25"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
+  <mergeCells count="10">
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B13:M13"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
@@ -1633,6 +1400,7 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B14:N14"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1640,11 +1408,599 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F21890-A597-467E-9367-06D36CAF8E11}">
+  <dimension ref="B3:M37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.7</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0.7</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0.7</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="28">
+        <v>0.7</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="18"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C28:E28"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C30:C37">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CC52CC09-7B23-4AA3-81A4-0CA98AFD85D6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D13">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A7E8C12D-A005-4B7E-AB4E-435B315AE77C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D25">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{364E9B71-0A01-46BF-84FF-91D1A8057F61}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D37">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E988AE6F-8D3D-4319-9FDC-2684FE674F83}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E13">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8EC38CBA-7DB1-42B9-B98B-6389179AB3CD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E25">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{95522ED1-30A3-4809-9208-469FBA621B2B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:E37">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F7F85ACA-F26E-4CBC-8278-BBFBDBE9B7B0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C13">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A17CD655-CF47-497A-99A3-1DD58651EB14}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:C25">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C29DF5E9-237F-4827-BE92-4D49BC2A67E4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CC52CC09-7B23-4AA3-81A4-0CA98AFD85D6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C30:C37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A7E8C12D-A005-4B7E-AB4E-435B315AE77C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D6:D13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{364E9B71-0A01-46BF-84FF-91D1A8057F61}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D18:D25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E988AE6F-8D3D-4319-9FDC-2684FE674F83}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D30:D37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8EC38CBA-7DB1-42B9-B98B-6389179AB3CD}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E6:E13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{95522ED1-30A3-4809-9208-469FBA621B2B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E18:E25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F7F85ACA-F26E-4CBC-8278-BBFBDBE9B7B0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E30:E37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A17CD655-CF47-497A-99A3-1DD58651EB14}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C6:C13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C29DF5E9-237F-4827-BE92-4D49BC2A67E4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C18:C25</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
   <dimension ref="B2:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y2"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,89 +2029,89 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
     </row>
     <row r="3" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="str">
+      <c r="B3" s="35" t="str">
         <f>Employee!C6</f>
         <v>Asad Mahmood</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -1764,41 +2120,41 @@
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50" t="s">
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="K6" s="47" t="s">
+      <c r="K6" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-      <c r="O6" s="50" t="s">
+      <c r="L6" s="40"/>
+      <c r="M6" s="41"/>
+      <c r="O6" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
       <c r="S6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="U6" s="8"/>
-      <c r="V6" s="47" t="s">
+      <c r="V6" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="49"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="41"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="28"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8" t="s">
         <v>85</v>
@@ -1812,8 +2168,8 @@
       <c r="G7" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
       <c r="K7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1832,10 +2188,10 @@
       <c r="Q7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="S7" s="29" t="s">
+      <c r="S7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="29" t="s">
+      <c r="U7" s="26" t="s">
         <v>33</v>
       </c>
       <c r="V7" s="8" t="s">
@@ -1852,7 +2208,7 @@
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="24" t="s">
         <v>89</v>
       </c>
       <c r="C8" s="1"/>
@@ -1881,25 +2237,27 @@
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25">
+      <c r="D9" s="22"/>
+      <c r="E9" s="22">
         <v>5</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2">
+        <v>40</v>
+      </c>
       <c r="L9" s="2">
         <v>56</v>
       </c>
       <c r="M9" s="9">
-        <f t="shared" ref="M9:M14" si="0">IF(K9=0,0,(L9-K9)/K9)</f>
-        <v>0</v>
+        <f>IF(K9=0,0,IF(L9=0,0,(L9/K9)))</f>
+        <v>1.4</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2">
@@ -1912,10 +2270,10 @@
         <f>IF(O9=0,0,(P9-O9)/O9)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="30"/>
-      <c r="S9" s="26">
+      <c r="R9" s="27"/>
+      <c r="S9" s="23">
         <f>(K9+O9)-(L9+P9)</f>
-        <v>-56</v>
+        <v>-16</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="9"/>
@@ -1925,10 +2283,10 @@
       <c r="Y9" s="6"/>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1939,7 +2297,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M10:M14" si="0">IF(K10=0,0,(L10-K10)/K10)</f>
         <v>0</v>
       </c>
       <c r="N10" s="2"/>
@@ -1949,8 +2307,8 @@
         <f>IF(O10=0,0,(P10-O10)/O10)</f>
         <v>0</v>
       </c>
-      <c r="R10" s="30"/>
-      <c r="S10" s="26">
+      <c r="R10" s="27"/>
+      <c r="S10" s="23">
         <f>(K10+O10)-(L10+P10)</f>
         <v>0</v>
       </c>
@@ -1963,7 +2321,7 @@
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="24" t="s">
         <v>91</v>
       </c>
       <c r="D11" s="2"/>
@@ -1988,8 +2346,8 @@
         <f>IF(O11=0,0,(P11-O11)/O11)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="30"/>
-      <c r="S11" s="26">
+      <c r="R11" s="27"/>
+      <c r="S11" s="23">
         <f>(K11+O11)-(L11+P11)</f>
         <v>0</v>
       </c>
@@ -2002,7 +2360,7 @@
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="24" t="s">
         <v>92</v>
       </c>
       <c r="D12" s="2"/>
@@ -2030,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="2"/>
-      <c r="S12" s="26">
+      <c r="S12" s="23">
         <f>(K12+O12)-(L12+P12)</f>
         <v>-83</v>
       </c>
@@ -2099,7 +2457,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="11">
         <f t="shared" ref="K14:L14" si="2">SUM(K8:K13)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L14" s="11">
         <f t="shared" si="2"/>
@@ -2107,7 +2465,7 @@
       </c>
       <c r="M14" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="11">
@@ -2125,7 +2483,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="11">
         <f>SUM(S8:S12)</f>
-        <v>-139</v>
+        <v>-99</v>
       </c>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
